--- a/Media/Résultats.xlsx
+++ b/Media/Résultats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9FB8C-FACA-45F5-BC59-2D7EFB323888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C0E59-A28B-469D-8B35-C4D5C6D597E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1110" windowWidth="23475" windowHeight="12525" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA09CD46-4819-4640-888F-2E45EE8A1E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="63">
   <si>
     <t>Scénario Pour un executable</t>
   </si>
@@ -174,16 +174,70 @@
   </si>
   <si>
     <t>NON</t>
+  </si>
+  <si>
+    <t>08.04.2020</t>
+  </si>
+  <si>
+    <t>OUI Pas tres lisible</t>
+  </si>
+  <si>
+    <t>NON '=&gt;quitter (log une erreur dans la console mais quitte juste apres)</t>
+  </si>
+  <si>
+    <t>NON Oui mais risque selection aleatoir problematique, chances de chopper une carte non existante.</t>
+  </si>
+  <si>
+    <t>NON K=A &amp; x+1?</t>
+  </si>
+  <si>
+    <t>OUI ! Pas dans les 2 sens</t>
+  </si>
+  <si>
+    <t>NON Permet meme de gagner dans le cas ou l'on coule plusieurs fois le meme bateau</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>oui mais ascii non adapté</t>
+  </si>
+  <si>
+    <t>oui/non quitte l'app</t>
+  </si>
+  <si>
+    <t>oui mais une map null peut estre chargé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui </t>
+  </si>
+  <si>
+    <t>Oui sauf K</t>
+  </si>
+  <si>
+    <t>Oui/non car spam la même coordonées peut nous faire gagner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -338,6 +392,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3FCF5-37A7-499C-B386-406526EA7D7E}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,8 +752,8 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1175,12 +1263,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="8">
         <v>43927</v>
@@ -1188,18 +1276,16 @@
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="E30" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1.2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="14">
         <v>43927</v>
@@ -1216,7 +1302,7 @@
         <v>1.3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="14">
         <v>43927</v>
@@ -1233,7 +1319,7 @@
         <v>1.4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="14">
         <v>43927</v>
@@ -1250,7 +1336,7 @@
         <v>1.5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" s="14">
         <v>43927</v>
@@ -1259,7 +1345,7 @@
         <v>37</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,7 +1353,7 @@
         <v>1.6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" s="14">
         <v>43927</v>
@@ -1276,7 +1362,7 @@
         <v>37</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,7 +1370,7 @@
         <v>1.7</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="14">
         <v>43927</v>
@@ -1301,7 +1387,7 @@
         <v>1.8</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="14">
         <v>43927</v>
@@ -1310,15 +1396,15 @@
         <v>37</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="14">
         <v>43927</v>
@@ -1327,15 +1413,15 @@
         <v>37</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="14">
         <v>43927</v>
@@ -1344,15 +1430,15 @@
         <v>37</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="14">
         <v>43927</v>
@@ -1366,10 +1452,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="14">
         <v>43927</v>
@@ -1383,10 +1469,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="14">
         <v>43927</v>
@@ -1400,10 +1486,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="14">
         <v>43927</v>
@@ -1417,10 +1503,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="14">
         <v>43927</v>
@@ -1434,10 +1520,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="14">
         <v>43927</v>
@@ -1446,15 +1532,15 @@
         <v>37</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="14">
         <v>43927</v>
@@ -1463,15 +1549,15 @@
         <v>37</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C47" s="14">
         <v>43927</v>
@@ -1480,15 +1566,15 @@
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C48" s="14">
         <v>43927</v>
@@ -1500,12 +1586,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="14">
         <v>43927</v>
@@ -1514,15 +1600,15 @@
         <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" s="14">
         <v>43927</v>
@@ -1531,15 +1617,15 @@
         <v>37</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" s="14">
         <v>43927</v>
@@ -1548,15 +1634,15 @@
         <v>37</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="14">
         <v>43927</v>
@@ -1568,12 +1654,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="14">
         <v>43927</v>
@@ -1585,38 +1671,961 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="15">
+        <v>43927</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>3</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="22"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>3.5</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="14">
-        <v>43927</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="C79" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>3.6</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="15">
-        <v>43927</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>46</v>
+      <c r="C80" s="27">
+        <v>43929</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="22"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>2</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>3</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="26">
+        <v>43929</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="27">
+        <v>43929</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1629,6 +2638,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>